--- a/atomica/library/tb_simple_databook.xlsx
+++ b/atomica/library/tb_simple_databook.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{284159E1-2382-8945-864B-DDEB6545FD8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E36A64-5030-430A-B0AF-56448C0383C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,517 +34,88 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{47ED9844-02A3-184A-9FE8-DDC6DBFC62B9}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>The Journal of Infectious Diseases</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{1B592CC3-6877-9043-9BED-9D3CAA548799}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>The Journal of Infectious Diseases</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{2BB79B26-5B62-034E-A59D-D935DDC38F9B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
         <r>
           <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>The Journal of Infectious Diseases</t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{1BE83851-7F38-484A-B347-14FDAA44B6A6}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
         <r>
           <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>The Journal of Infectious Diseases</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{2524C9E8-EEB9-2A48-BB5F-79A1E57047F7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Source:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The Journal of Infectious Diseases</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Table 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>See: https://doi.org/10.1093/infdis/jix335</t>
+          <t>Source:
+Pren Naidoo, Grant Theron, Molebogeng X Rangaka, Violet N Chihota, Louise Vaughan, Zameer O Brey, Yogan Pillay; The South African Tuberculosis Care Cascade: Estimated Losses and Methodological Challenges, The Journal of Infectious Diseases, Volume 216, Issue suppl_7, 6 November 2017, Pages S702–S713
+Table 1
+See: https://doi.org/10.1093/infdis/jix335</t>
         </r>
       </text>
     </comment>
@@ -554,6 +132,12 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
     <t>TB burden</t>
   </si>
   <si>
@@ -603,19 +187,13 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,47 +205,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1227,12 +764,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,12 +777,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1264,23 +801,23 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -1299,17 +836,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1319,15 +856,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1346,17 +883,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1366,15 +903,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -1393,17 +930,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1413,15 +950,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -1440,17 +977,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1460,15 +997,15 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -1487,17 +1024,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1549,7 +1086,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1569,23 +1106,23 @@
       <selection activeCell="G8" sqref="G8:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -1604,17 +1141,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1624,15 +1161,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1651,17 +1188,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1671,15 +1208,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -1698,17 +1235,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1718,15 +1255,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -1745,17 +1282,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1765,15 +1302,15 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -1792,19 +1329,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4">
         <v>0.2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1812,15 +1349,15 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -1839,19 +1376,19 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
         <v>0.16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1909,13 +1446,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B17 B11" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5 B17 B11" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/tb_simple_databook.xlsx
+++ b/atomica/library/tb_simple_databook.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E36A64-5030-430A-B0AF-56448C0383C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D7E4C9-C86C-2942-927A-98904EDA48D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="23700" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -124,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -171,9 +177,6 @@
     <t>Test yield</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Annual number newly initiated onto treatment</t>
   </si>
   <si>
@@ -187,6 +190,12 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
+  </si>
+  <si>
+    <t>Fraction</t>
   </si>
 </sst>
 </file>
@@ -435,9 +444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -475,9 +484,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,26 +519,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,26 +554,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,12 +739,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -801,15 +776,15 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -836,7 +811,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -856,7 +831,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -883,7 +858,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -903,7 +878,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -930,7 +905,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -950,7 +925,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,7 +952,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -997,7 +972,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +999,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1045,44 +1020,44 @@
       <c r="I14" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND(COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
-      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
-      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1103,18 +1078,18 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1116,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1161,7 +1136,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1188,13 +1163,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
@@ -1208,9 +1183,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1235,7 +1210,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -1255,9 +1230,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1282,13 +1257,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -1302,9 +1277,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1329,13 +1304,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
         <v>0.2</v>
@@ -1349,9 +1324,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1376,13 +1351,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4">
         <v>0.16</v>
@@ -1397,63 +1372,66 @@
       <c r="I17" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>AND(COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5 B17 B11" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17 B11" xr:uid="{99FEF72C-A6E2-D342-BAC7-704E4C7F7FF3}">
+      <formula1>"Rate (per year)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{AA23ACF8-34A8-1B43-956B-D9249824F835}">
+      <formula1>"Fraction"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
